--- a/upload/excel/excelHuyenQuanLi.xlsx
+++ b/upload/excel/excelHuyenQuanLi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Mã số</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>HQL_HB_BATT_002</t>
-  </si>
-  <si>
     <t>Hòa Bắc</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>ACR_123</t>
   </si>
   <si>
-    <t>HQL_HC_BATT_003</t>
-  </si>
-  <si>
     <t>Hòa Châu</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
     <t>Tên chủ cơ sở</t>
   </si>
   <si>
-    <t>HQL_HC_BATT_004</t>
-  </si>
-  <si>
-    <t>Test004</t>
-  </si>
-  <si>
     <t>TES_612</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>22.12.2019</t>
   </si>
   <si>
-    <t>22.09.2019</t>
-  </si>
-  <si>
     <t>22.09.2018</t>
   </si>
   <si>
@@ -176,10 +161,31 @@
     <t>KT_HQL_2019_0001</t>
   </si>
   <si>
-    <t>KT_HQL_2019_0002</t>
-  </si>
-  <si>
     <t>KT_HQL_2019_0003</t>
+  </si>
+  <si>
+    <t>Xử phạt</t>
+  </si>
+  <si>
+    <t>Nhắc nhở</t>
+  </si>
+  <si>
+    <t>KT_HQL_2019_0094</t>
+  </si>
+  <si>
+    <t>HQL_HC_BATT_005</t>
+  </si>
+  <si>
+    <t>HQL_HC_BATT_007</t>
+  </si>
+  <si>
+    <t>HQL_HB_BATT_001</t>
+  </si>
+  <si>
+    <t>22.04.2019</t>
+  </si>
+  <si>
+    <t>Cảnh cáo</t>
   </si>
 </sst>
 </file>
@@ -309,7 +315,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -332,9 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -360,6 +363,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -370,6 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -681,7 +686,7 @@
   <dimension ref="A1:K278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,123 +716,123 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="8">
         <v>906499684</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J2" s="24"/>
-      <c r="K2" s="21" t="s">
-        <v>30</v>
+      <c r="K2" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>33</v>
+      <c r="E3" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="22">
+        <v>7</v>
+      </c>
+      <c r="G3" s="21">
         <v>2363670036</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
+      <c r="A4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="21">
+        <v>236363234</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="22">
-        <v>236363234</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>42</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2320,10 +2325,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,250 +2337,262 @@
     <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14" style="17" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="7" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="14">
-        <v>2019</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2019</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>40</v>
+      <c r="C4" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D4">
         <v>2019</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>43</v>
+      <c r="E4" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
       <c r="D5">
         <v>2018</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="20"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="20"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="20"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="20"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="20"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="20"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="20"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="20"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="20"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="20"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="20"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="20"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="20"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="20"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="20"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="20"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="20"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="20"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="20"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="20"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="20"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="20"/>
+      <c r="E39" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D39">
